--- a/appium/Results/ExcelSheetsFolder/27062025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/27062025/ExcelResults.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3226DD4A-25FD-45A0-99A1-8E0F0F73E1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JMSD200A_23.1.11_27062025" r:id="rId3" sheetId="1"/>
+    <sheet name="JMSD200A_23.1.11_27062025" sheetId="1" r:id="rId1"/>
+    <sheet name="JHSC200_11.2.48_27062025" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="45">
   <si>
     <t>DeviceName</t>
   </si>
@@ -54,16 +59,109 @@
   </si>
   <si>
     <t>1920 1080</t>
+  </si>
+  <si>
+    <t>Ummadi Kutumbam</t>
+  </si>
+  <si>
+    <t>Auto Shankar</t>
+  </si>
+  <si>
+    <t>Zee Telugu HD</t>
+  </si>
+  <si>
+    <t>1280 720</t>
+  </si>
+  <si>
+    <t>Zee Kannada HD</t>
+  </si>
+  <si>
+    <t>jiohotstar_25.06.16.5</t>
+  </si>
+  <si>
+    <t>subham</t>
+  </si>
+  <si>
+    <t>Salaar</t>
+  </si>
+  <si>
+    <t>Bhagavanth Kesari</t>
+  </si>
+  <si>
+    <t>Captain America Brave new world</t>
+  </si>
+  <si>
+    <t>ironheart</t>
+  </si>
+  <si>
+    <t>Anupama</t>
+  </si>
+  <si>
+    <t>sunnxt_8.0.23</t>
+  </si>
+  <si>
+    <t>Petta</t>
+  </si>
+  <si>
+    <t>ET - Telugu</t>
+  </si>
+  <si>
+    <t>35 chinna vishayam ila</t>
+  </si>
+  <si>
+    <t>upadhyaksha</t>
+  </si>
+  <si>
+    <t>ayalaan</t>
+  </si>
+  <si>
+    <t>JHSC200_11.2.48</t>
+  </si>
+  <si>
+    <t>jiohotstar_25.06.09.3</t>
+  </si>
+  <si>
+    <t>sonyliv_3.4.51</t>
+  </si>
+  <si>
+    <t>pani</t>
+  </si>
+  <si>
+    <t>src_fmt = invaild</t>
+  </si>
+  <si>
+    <t>NA NA</t>
+  </si>
+  <si>
+    <t>Kankhajura</t>
+  </si>
+  <si>
+    <t>maharani</t>
+  </si>
+  <si>
+    <t>marco</t>
+  </si>
+  <si>
+    <t>piku</t>
+  </si>
+  <si>
+    <t>1024 576</t>
+  </si>
+  <si>
+    <t>960 540</t>
+  </si>
+  <si>
+    <t>zee5_5.65.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -75,7 +173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -93,26 +191,334 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.48828125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.65234375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.17578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.11328125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -132,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
@@ -152,7 +558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
@@ -172,7 +578,1768 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>